--- a/QRSS TX - clock tx/ppv-to-power-calculator.xlsx
+++ b/QRSS TX - clock tx/ppv-to-power-calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\Documents\GitHub\AVR-projects\QRSS TX - clock tx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08565D4-8585-42B8-80BA-512545B05C93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB850B2D-BB64-466E-B586-9EF223DEEB74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24255" yWindow="3525" windowWidth="21600" windowHeight="11505" xr2:uid="{444DF1BC-4F21-4486-88EE-6ABBD1FC7111}"/>
+    <workbookView xWindow="-24255" yWindow="1485" windowWidth="21600" windowHeight="13545" xr2:uid="{444DF1BC-4F21-4486-88EE-6ABBD1FC7111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>V</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">Power = </t>
-  </si>
-  <si>
-    <t>zero-to-eak:</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,23 +419,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1">
-        <v>0.05</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <f>C1*2</f>
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -461,7 +449,7 @@
       </c>
       <c r="C4">
         <f>(C2/(2*SQRT(2)))^2/C3</f>
-        <v>2.5000000000000001E-5</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -470,7 +458,7 @@
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>C4*1000</f>
-        <v>2.5000000000000001E-2</v>
+        <v>1.6</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
